--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, , </t>
+          <t>황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기, </t>
+          <t>어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치, </t>
+          <t>근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일, </t>
+          <t>계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료, </t>
+          <t>근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>11.68</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="15">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>12.89</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="18">
@@ -775,7 +775,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치, </t>
+          <t>어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차, </t>
+          <t>계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치, </t>
+          <t>사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">사골국, 쌀밥, 카레라이스, 대왕소세지, 미역줄기볶음, 그린샐러드, 배추김치, </t>
+          <t>사골국, 쌀밥, 카레라이스, 대왕소세지, 미역줄기볶음, 그린샐러드, 배추김치</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기, </t>
+          <t>돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일, </t>
+          <t>나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">부대찌개, 김치볶음밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료, </t>
+          <t>부대찌개, 김치볶음밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료</t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수</t>
+          <t>계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기</t>
+          <t>사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치</t>
+          <t>돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일</t>
+          <t>나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료</t>
+          <t>부대찌개, 쌀밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>화</t>
         </is>
       </c>
     </row>
@@ -582,27 +582,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">작성자 : 한여은
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성일자 : 2024.08.22
-작성자 : 조현영
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성일자 : 2024.08.21
-작성자 : 조현영
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성일자 : 2024.08.21
-작성자 : 한여은
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성일자 : 2024.08.20
-작성자 : 컴퓨터공학과
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성일자 : 2024.08.19
-</t>
+          <t>&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127604&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[안내] 2024 제3회 TANGO Community Conference 사전 등록 모집 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127598&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2025년 2월 조기졸업 신청서 제출 안내 자세히 보기 &lt;/a&gt; | 2024.11.26&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127469&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 24-2 기말고사 일정 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127462&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;2024학년도 2학기 졸업프로젝트 전시회 일정 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127453&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[장학] 2024-2학기 교내 신용카드수수료장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.21&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127433&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2024학년도 2학기 학생 포상 대상자 추천 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=127426&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;[필독] 2025학년도 1학기 교내장학금 신청 안내 자세히 보기 &lt;/a&gt; | 2024.11.20&lt;br&gt;&lt;br&gt;&lt;a href="https://wwwce.hongik.ac.kr/wwwce/0401.do?mode=view&amp;articleNo=125164&amp;article.offset=0&amp;articleLimit=10" target="_blank"&gt;국가기술자격 출제기준 개정사항 안내 및 ICT자격 안내 자세히 보기 &lt;/a&gt; | 2024.11.11&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
     </row>
@@ -623,7 +603,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>11.98</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +614,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>실 비</t>
+          <t>눈</t>
         </is>
       </c>
     </row>
@@ -645,7 +625,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10.94</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +635,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>12.94</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +675,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +686,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>수</t>
         </is>
       </c>
     </row>
@@ -717,7 +697,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>6.39</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +708,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>실 비</t>
+          <t>눈</t>
         </is>
       </c>
     </row>
@@ -739,7 +719,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>3.63</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +729,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>9.949999999999999</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +755,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치</t>
+          <t>사골국, 쌀밥, 카레라이스, 대왕소세지, 미역줄기볶음, 그린샐러드, 배추김치</t>
         </is>
       </c>
     </row>
@@ -787,7 +767,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차</t>
+          <t>미역국, 쌀밥, 간장제육, 고구마고로케&amp;케찹, 호박볶음, 두유, 배추김치, Take out menu, 돈까스덮밥도시락, 요구르트</t>
         </is>
       </c>
     </row>
@@ -799,7 +779,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치</t>
+          <t>얼갈이된장국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 푸실리샐러드, 콩나물무침, 배추김치</t>
         </is>
       </c>
     </row>
@@ -811,7 +791,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>사골국, 쌀밥, 카레라이스, 대왕소세지, 미역줄기볶음, 그린샐러드, 배추김치</t>
+          <t>얼갈이된장국, 쌀밥, 스팸김치덮밥, 유부잡채, 두부조림, 콩나물무침, 배추김치</t>
         </is>
       </c>
     </row>
@@ -823,7 +803,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기</t>
+          <t>순대국밥, 쌀밥, 돈육두부스테이크&amp;소스, 어묵볶음, 스틱채소&amp;쌈장, 무말랭이무침, 배추김치</t>
         </is>
       </c>
     </row>
@@ -847,7 +827,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일</t>
+          <t>얼큰콩나물국, 흑미밥, 데리야끼닭볶음, 생선가스&amp;마라크림소스, 누룽지멸치볶음, 야채샐러드, 포기김치, 계절과일</t>
         </is>
       </c>
     </row>
@@ -859,7 +839,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>부대찌개, 김치볶음밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료</t>
+          <t>사골미역국, 흑미밥, 훈제오리야채볶음, 꽈배기, 도라지무침, 야채샐러드, 포기김치, 냉음료</t>
         </is>
       </c>
     </row>
